--- a/_pedro/notas/musb88.xlsx
+++ b/_pedro/notas/musb88.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D204E3-5675-CF4E-8B99-F31C096B3DD6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABFC5D4-123B-5E4C-8833-772F78A1ED2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nome</t>
   </si>
@@ -48,9 +48,6 @@
     <t>R4</t>
   </si>
   <si>
-    <t>Edgar Bispo Da Silva Neto</t>
-  </si>
-  <si>
     <t>Eduardo Lago Nunes</t>
   </si>
   <si>
@@ -63,10 +60,7 @@
     <t>Lucas Borges Jagersbacher</t>
   </si>
   <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>Rosa Maria Araujo Calazans</t>
   </si>
 </sst>
 </file>
@@ -430,7 +424,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,120 +462,45 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="F2">
+        <f t="shared" ref="F2:F6" si="0">SUM(B2:E2)</f>
         <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>SUM(B2:E2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2.5</v>
-      </c>
-      <c r="D3">
-        <v>2.5</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">SUM(B3:E3)</f>
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1.5</v>
-      </c>
-      <c r="E4">
-        <v>2.5</v>
-      </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>2.5</v>
-      </c>
-      <c r="E6">
-        <v>2.5</v>
-      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musb88.xlsx
+++ b/_pedro/notas/musb88.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABFC5D4-123B-5E4C-8833-772F78A1ED2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406DEB85-000A-F744-85EC-7886A0A88FA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nome</t>
   </si>
@@ -54,13 +54,10 @@
     <t>Filipe Palma Abreu</t>
   </si>
   <si>
-    <t>Jordan Santos Hohenfeld</t>
-  </si>
-  <si>
-    <t>Lucas Borges Jagersbacher</t>
-  </si>
-  <si>
     <t>Rosa Maria Araujo Calazans</t>
+  </si>
+  <si>
+    <t>R5</t>
   </si>
 </sst>
 </file>
@@ -421,21 +418,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52662730-B2EC-5246-9883-F7D2B6CC212C}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="5.1640625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="5.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,53 +449,56 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F6" si="0">SUM(B2:E2)</f>
-        <v>0</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">SUM(B3:F3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/_pedro/notas/musb88.xlsx
+++ b/_pedro/notas/musb88.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406DEB85-000A-F744-85EC-7886A0A88FA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501111DC-3BEE-1847-9401-8988C5149BB1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
@@ -51,13 +51,13 @@
     <t>Eduardo Lago Nunes</t>
   </si>
   <si>
-    <t>Filipe Palma Abreu</t>
-  </si>
-  <si>
     <t>Rosa Maria Araujo Calazans</t>
   </si>
   <si>
     <t>R5</t>
+  </si>
+  <si>
+    <t>Lucas Borges Jagersbacher</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -468,6 +468,9 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="G2">
         <f>SUM(B2:F2)</f>
         <v>2</v>
@@ -475,27 +478,33 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G4" si="0">SUM(B3:F3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="G4">
